--- a/testdata/simpletonTest.xlsx
+++ b/testdata/simpletonTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/dd4/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/rulesBotGithubSyncVersion/omRules/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A20791-97E9-5E43-B66A-6B2F37C56616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266AEA4-E0E3-F442-A319-8D424D15B8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23140" yWindow="-19860" windowWidth="21600" windowHeight="16940" activeTab="7" xr2:uid="{17C85389-D454-E245-8EC3-789EADD9B7BA}"/>
+    <workbookView xWindow="34420" yWindow="-5600" windowWidth="21600" windowHeight="16940" xr2:uid="{17C85389-D454-E245-8EC3-789EADD9B7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="simpleton" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,36 +207,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -245,9 +249,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,13 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86638087-5C2A-2E4B-B381-709D365E2989}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -580,7 +586,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -604,96 +610,339 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -702,24 +951,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAE3404-BBB2-DE48-B82A-F47F480071A9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -743,38 +993,292 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -783,24 +1287,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28558AA6-AB99-5E4F-94F2-459B7A34B0BD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -824,9 +1329,267 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,18 +1598,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF361503-3965-BD4D-A29F-0FDFBE01BF6B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -870,21 +1634,279 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -893,25 +1915,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBFB7BF-FF8C-4241-9248-C8C6CB1BF6FA}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -935,50 +1957,303 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -987,15 +2262,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D43043-BBFD-7B44-AB9F-032EA1F87A62}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1019,18 +2297,276 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1039,15 +2575,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56CC1A4-1C77-2142-BC86-1AC2F033FA9D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1071,36 +2610,285 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,24 +2897,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5C8B4F-5AB2-5A4D-8A58-281BEB210FE2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1149,13 +2938,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/simpletonTest.xlsx
+++ b/testdata/simpletonTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/rulesBotGithubSyncVersion/omRules/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266AEA4-E0E3-F442-A319-8D424D15B8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1AA2D-ECA8-5F40-9573-6A520445A888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="-5600" windowWidth="21600" windowHeight="16940" xr2:uid="{17C85389-D454-E245-8EC3-789EADD9B7BA}"/>
+    <workbookView xWindow="34840" yWindow="-15220" windowWidth="21600" windowHeight="16940" activeTab="7" xr2:uid="{17C85389-D454-E245-8EC3-789EADD9B7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="simpleton" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="MACY204" sheetId="2" r:id="rId5"/>
     <sheet name="GERBER" sheetId="6" r:id="rId6"/>
     <sheet name="ALENDIST" sheetId="7" r:id="rId7"/>
-    <sheet name="USFOOD" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>BAYVALLE</t>
   </si>
@@ -192,7 +192,10 @@
     <t>JBT</t>
   </si>
   <si>
-    <t>USFOOD</t>
+    <t>99CENTS</t>
+  </si>
+  <si>
+    <t>99LO3</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86638087-5C2A-2E4B-B381-709D365E2989}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2899,15 +2902,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5C8B4F-5AB2-5A4D-8A58-281BEB210FE2}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
@@ -2944,11 +2947,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">

--- a/testdata/simpletonTest.xlsx
+++ b/testdata/simpletonTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/rulesBotGithubSyncVersion/omRules/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1AA2D-ECA8-5F40-9573-6A520445A888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFC545-B008-2942-AE9E-DAEA9D9FD653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34840" yWindow="-15220" windowWidth="21600" windowHeight="16940" activeTab="7" xr2:uid="{17C85389-D454-E245-8EC3-789EADD9B7BA}"/>
+    <workbookView xWindow="33600" yWindow="-15240" windowWidth="21600" windowHeight="16940" activeTab="7" xr2:uid="{17C85389-D454-E245-8EC3-789EADD9B7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="simpleton" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="MACY204" sheetId="2" r:id="rId5"/>
     <sheet name="GERBER" sheetId="6" r:id="rId6"/>
     <sheet name="ALENDIST" sheetId="7" r:id="rId7"/>
-    <sheet name="TEST" sheetId="8" r:id="rId8"/>
+    <sheet name="example" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>BAYVALLE</t>
   </si>
@@ -192,10 +192,16 @@
     <t>JBT</t>
   </si>
   <si>
-    <t>99CENTS</t>
-  </si>
-  <si>
-    <t>99LO3</t>
+    <t>ARCONIC</t>
+  </si>
+  <si>
+    <t>ALPI37</t>
+  </si>
+  <si>
+    <t>Brok</t>
+  </si>
+  <si>
+    <t>ARCONICTP</t>
   </si>
 </sst>
 </file>
@@ -2903,7 +2909,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2913,7 +2919,7 @@
     <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="3"/>
   </cols>
@@ -2950,17 +2956,28 @@
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
